--- a/pred_ohlcv/54/2019-10-19 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 XVG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C2" t="n">
-        <v>4.12</v>
+        <v>4.05</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F2" t="n">
-        <v>308548.184</v>
+        <v>101249.9753</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088333333333332</v>
+        <v>4.086999999999998</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>4.04</v>
+        <v>4.12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.04</v>
+        <v>4.12</v>
       </c>
       <c r="E3" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="F3" t="n">
-        <v>24.6295</v>
+        <v>308548.184</v>
       </c>
       <c r="G3" t="n">
-        <v>4.088499999999998</v>
+        <v>4.088333333333332</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="D4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="E4" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="F4" t="n">
-        <v>4505.3545</v>
+        <v>24.6295</v>
       </c>
       <c r="G4" t="n">
         <v>4.088499999999998</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="C5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="E5" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F5" t="n">
-        <v>82606</v>
+        <v>4505.3545</v>
       </c>
       <c r="G5" t="n">
-        <v>4.087999999999998</v>
+        <v>4.088499999999998</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C6" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="D6" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E6" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="F6" t="n">
-        <v>448792.6511</v>
+        <v>82606</v>
       </c>
       <c r="G6" t="n">
-        <v>4.086666666666665</v>
+        <v>4.087999999999998</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="D7" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E7" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="F7" t="n">
-        <v>134967.5665</v>
+        <v>448792.6511</v>
       </c>
       <c r="G7" t="n">
-        <v>4.085999999999999</v>
+        <v>4.086666666666665</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E8" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F8" t="n">
-        <v>248.0726</v>
+        <v>134967.5665</v>
       </c>
       <c r="G8" t="n">
-        <v>4.084499999999999</v>
+        <v>4.085999999999999</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E9" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F9" t="n">
-        <v>66328.8177</v>
+        <v>248.0726</v>
       </c>
       <c r="G9" t="n">
-        <v>4.083166666666666</v>
+        <v>4.084499999999999</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C10" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D10" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E10" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>66328.8177</v>
       </c>
       <c r="G10" t="n">
-        <v>4.084166666666666</v>
+        <v>4.083166666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="C11" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>4.082999999999999</v>
+        <v>4.084166666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="D12" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F12" t="n">
-        <v>17471.2255</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
         <v>4.082999999999999</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="C13" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3087</v>
+        <v>17471.2255</v>
       </c>
       <c r="G13" t="n">
         <v>4.082999999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="C14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E14" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>0.3087</v>
       </c>
       <c r="G14" t="n">
-        <v>4.082166666666665</v>
+        <v>4.082999999999999</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="C15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E15" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F15" t="n">
-        <v>72524</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>4.081499999999998</v>
+        <v>4.082166666666665</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>4.07</v>
       </c>
       <c r="F16" t="n">
-        <v>132725.6314</v>
+        <v>72524</v>
       </c>
       <c r="G16" t="n">
-        <v>4.080833333333332</v>
+        <v>4.081499999999998</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>4.07</v>
       </c>
       <c r="F17" t="n">
-        <v>1434.1523</v>
+        <v>132725.6314</v>
       </c>
       <c r="G17" t="n">
-        <v>4.080166666666664</v>
+        <v>4.080833333333332</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>4.07</v>
       </c>
       <c r="F18" t="n">
-        <v>8188</v>
+        <v>1434.1523</v>
       </c>
       <c r="G18" t="n">
-        <v>4.079666666666665</v>
+        <v>4.080166666666664</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>4.07</v>
       </c>
       <c r="F19" t="n">
-        <v>22992.1393</v>
+        <v>8188</v>
       </c>
       <c r="G19" t="n">
-        <v>4.079499999999998</v>
+        <v>4.079666666666665</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>4.07</v>
       </c>
       <c r="C20" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D20" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E20" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F20" t="n">
-        <v>29602</v>
+        <v>22992.1393</v>
       </c>
       <c r="G20" t="n">
-        <v>4.079333333333331</v>
+        <v>4.079499999999998</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>4.07</v>
       </c>
       <c r="C21" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D21" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E21" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>29602</v>
       </c>
       <c r="G21" t="n">
-        <v>4.078999999999997</v>
+        <v>4.079333333333331</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C22" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="D22" t="n">
-        <v>4.1</v>
+        <v>4.07</v>
       </c>
       <c r="E22" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="n">
-        <v>4.079166666666664</v>
+        <v>4.078999999999997</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C23" t="n">
         <v>4.1</v>
@@ -963,15 +1031,18 @@
         <v>4.1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F23" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="n">
-        <v>4.079666666666664</v>
+        <v>4.079166666666664</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C24" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E24" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="F24" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="G24" t="n">
         <v>4.079666666666664</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C25" t="n">
         <v>4.06</v>
       </c>
       <c r="D25" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E25" t="n">
         <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="G25" t="n">
-        <v>4.079833333333331</v>
+        <v>4.079666666666664</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E26" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="n">
-        <v>4.080499999999997</v>
+        <v>4.079833333333331</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E27" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>4.080666666666664</v>
+        <v>4.080499999999997</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,18 +1173,21 @@
         <v>4.08</v>
       </c>
       <c r="D28" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E28" t="n">
         <v>4.08</v>
       </c>
       <c r="F28" t="n">
-        <v>20010</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="n">
-        <v>4.080499999999997</v>
+        <v>4.080666666666664</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1116,18 +1202,21 @@
         <v>4.08</v>
       </c>
       <c r="D29" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E29" t="n">
         <v>4.08</v>
       </c>
       <c r="F29" t="n">
-        <v>9290.4411</v>
+        <v>20010</v>
       </c>
       <c r="G29" t="n">
-        <v>4.080333333333331</v>
+        <v>4.080499999999997</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C30" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D30" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E30" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F30" t="n">
-        <v>7000</v>
+        <v>9290.4411</v>
       </c>
       <c r="G30" t="n">
         <v>4.080333333333331</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C31" t="n">
         <v>4.06</v>
       </c>
       <c r="D31" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E31" t="n">
         <v>4.06</v>
       </c>
       <c r="F31" t="n">
-        <v>3345.6621</v>
+        <v>7000</v>
       </c>
       <c r="G31" t="n">
-        <v>4.079833333333331</v>
+        <v>4.080333333333331</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="D32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E32" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>3345.6621</v>
       </c>
       <c r="G32" t="n">
-        <v>4.079499999999998</v>
+        <v>4.079833333333331</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C33" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="D33" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E33" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F33" t="n">
-        <v>128071.2608</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.078499999999997</v>
+        <v>4.079499999999998</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D34" t="n">
         <v>4.07</v>
       </c>
       <c r="E34" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>128071.2608</v>
       </c>
       <c r="G34" t="n">
-        <v>4.077999999999998</v>
+        <v>4.078499999999997</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C35" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D35" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="E35" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>4.078166666666664</v>
+        <v>4.077999999999998</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>4.08</v>
       </c>
       <c r="C36" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D36" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E36" t="n">
         <v>4.08</v>
       </c>
       <c r="F36" t="n">
-        <v>35000</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>4.078499999999998</v>
+        <v>4.078166666666664</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C37" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D37" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E37" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>35000</v>
       </c>
       <c r="G37" t="n">
-        <v>4.078166666666664</v>
+        <v>4.078499999999998</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E38" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F38" t="n">
-        <v>24.7518</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="n">
-        <v>4.077333333333332</v>
+        <v>4.078166666666664</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>4.05</v>
       </c>
       <c r="C39" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D39" t="n">
         <v>4.05</v>
       </c>
       <c r="E39" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F39" t="n">
-        <v>14975.2482</v>
+        <v>24.7518</v>
       </c>
       <c r="G39" t="n">
-        <v>4.076333333333332</v>
+        <v>4.077333333333332</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C40" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="D40" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="E40" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>14975.2482</v>
       </c>
       <c r="G40" t="n">
-        <v>4.075999999999998</v>
+        <v>4.076333333333332</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E41" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F41" t="n">
-        <v>7819.95</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>4.075499999999998</v>
+        <v>4.075999999999998</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>4.05</v>
       </c>
       <c r="C42" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="D42" t="n">
         <v>4.05</v>
       </c>
       <c r="E42" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="F42" t="n">
-        <v>20000</v>
+        <v>7819.95</v>
       </c>
       <c r="G42" t="n">
-        <v>4.074999999999998</v>
+        <v>4.075499999999998</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>4.05</v>
       </c>
       <c r="C43" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="D43" t="n">
         <v>4.05</v>
       </c>
       <c r="E43" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F43" t="n">
-        <v>208456.6917</v>
+        <v>20000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.074333333333332</v>
+        <v>4.074999999999998</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>4.05</v>
       </c>
       <c r="F44" t="n">
-        <v>9975</v>
+        <v>208456.6917</v>
       </c>
       <c r="G44" t="n">
-        <v>4.073666666666665</v>
+        <v>4.074333333333332</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>4.05</v>
       </c>
       <c r="F45" t="n">
-        <v>130213.019</v>
+        <v>9975</v>
       </c>
       <c r="G45" t="n">
-        <v>4.072833333333332</v>
+        <v>4.073666666666665</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E46" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F46" t="n">
-        <v>190817.7092</v>
+        <v>130213.019</v>
       </c>
       <c r="G46" t="n">
-        <v>4.072499999999999</v>
+        <v>4.072833333333332</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>4.04</v>
       </c>
       <c r="F47" t="n">
-        <v>3489</v>
+        <v>190817.7092</v>
       </c>
       <c r="G47" t="n">
-        <v>4.071499999999999</v>
+        <v>4.072499999999999</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>4.04</v>
       </c>
       <c r="F48" t="n">
-        <v>247.5247</v>
+        <v>3489</v>
       </c>
       <c r="G48" t="n">
-        <v>4.069999999999999</v>
+        <v>4.071499999999999</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>4.04</v>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>247.5247</v>
       </c>
       <c r="G49" t="n">
-        <v>4.068999999999998</v>
+        <v>4.069999999999999</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>4.04</v>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="n">
-        <v>4.067499999999998</v>
+        <v>4.068999999999998</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="D51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="E51" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="F51" t="n">
-        <v>12723.4851</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="n">
-        <v>4.065833333333332</v>
+        <v>4.067499999999998</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C52" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="D52" t="n">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
       <c r="E52" t="n">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>12723.4851</v>
       </c>
       <c r="G52" t="n">
-        <v>4.064999999999999</v>
+        <v>4.065833333333332</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>4.05</v>
       </c>
       <c r="C53" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D53" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E53" t="n">
         <v>4.05</v>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>4.063833333333331</v>
+        <v>4.064999999999999</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,25 +1921,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E54" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F54" t="n">
-        <v>2547.2239</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063833333333331</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1950,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E55" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F55" t="n">
-        <v>3051.358</v>
+        <v>2547.2239</v>
       </c>
       <c r="G55" t="n">
-        <v>4.061999999999999</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1824,12 +1991,15 @@
         <v>4.05</v>
       </c>
       <c r="F56" t="n">
-        <v>1520.8073</v>
+        <v>3051.358</v>
       </c>
       <c r="G56" t="n">
-        <v>4.061833333333332</v>
+        <v>4.061999999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>4.05</v>
       </c>
       <c r="F57" t="n">
-        <v>79.1927</v>
+        <v>1520.8073</v>
       </c>
       <c r="G57" t="n">
-        <v>4.061666666666666</v>
+        <v>4.061833333333332</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,13 +2049,16 @@
         <v>4.05</v>
       </c>
       <c r="F58" t="n">
-        <v>9558.4884</v>
+        <v>79.1927</v>
       </c>
       <c r="G58" t="n">
-        <v>4.061499999999999</v>
+        <v>4.061666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1902,12 +2078,15 @@
         <v>4.05</v>
       </c>
       <c r="F59" t="n">
-        <v>30041.5116</v>
+        <v>9558.4884</v>
       </c>
       <c r="G59" t="n">
         <v>4.061499999999999</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="C60" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D60" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E60" t="n">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="F60" t="n">
-        <v>66132.1118</v>
+        <v>30041.5116</v>
       </c>
       <c r="G60" t="n">
-        <v>4.062499999999999</v>
+        <v>4.061499999999999</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="C61" t="n">
         <v>4.09</v>
@@ -1951,15 +2133,18 @@
         <v>4.09</v>
       </c>
       <c r="E61" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="F61" t="n">
-        <v>24061.5004</v>
+        <v>66132.1118</v>
       </c>
       <c r="G61" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062499999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,22 +2156,25 @@
         <v>4.09</v>
       </c>
       <c r="C62" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D62" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E62" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F62" t="n">
-        <v>30424.6919</v>
+        <v>24061.5004</v>
       </c>
       <c r="G62" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +2182,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C63" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D63" t="n">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="E63" t="n">
         <v>4.06</v>
       </c>
       <c r="F63" t="n">
-        <v>1931.6959</v>
+        <v>30424.6919</v>
       </c>
       <c r="G63" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2211,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="C64" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="E64" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="F64" t="n">
-        <v>57121.4911</v>
+        <v>1931.6959</v>
       </c>
       <c r="G64" t="n">
-        <v>4.062833333333332</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2240,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C65" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="D65" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E65" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="F65" t="n">
-        <v>10029.8769</v>
+        <v>57121.4911</v>
       </c>
       <c r="G65" t="n">
-        <v>4.063166666666666</v>
+        <v>4.062833333333332</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2075,22 +2272,25 @@
         <v>4.09</v>
       </c>
       <c r="C66" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="D66" t="n">
         <v>4.09</v>
       </c>
       <c r="E66" t="n">
-        <v>4.07</v>
+        <v>4.09</v>
       </c>
       <c r="F66" t="n">
-        <v>5009.9368</v>
+        <v>10029.8769</v>
       </c>
       <c r="G66" t="n">
-        <v>4.063999999999998</v>
+        <v>4.063166666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2298,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C67" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="D67" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E67" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="F67" t="n">
-        <v>643.4087</v>
+        <v>5009.9368</v>
       </c>
       <c r="G67" t="n">
-        <v>4.064333333333332</v>
+        <v>4.063999999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="C68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="E68" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>643.4087</v>
       </c>
       <c r="G68" t="n">
-        <v>4.064999999999999</v>
+        <v>4.064333333333332</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="D69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E69" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="F69" t="n">
-        <v>4356.5913</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>4.065333333333332</v>
+        <v>4.064999999999999</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,25 +2385,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="D70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="E70" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F70" t="n">
-        <v>18977.3955</v>
+        <v>4356.5913</v>
       </c>
       <c r="G70" t="n">
-        <v>4.064833333333332</v>
+        <v>4.065333333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C71" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D71" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F71" t="n">
-        <v>18006.1727</v>
+        <v>18977.3955</v>
       </c>
       <c r="G71" t="n">
-        <v>4.065</v>
+        <v>4.064833333333332</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="C72" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D72" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="E72" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F72" t="n">
-        <v>8404.358200000001</v>
+        <v>18006.1727</v>
       </c>
       <c r="G72" t="n">
-        <v>4.063833333333332</v>
+        <v>4.065</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E73" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="F73" t="n">
-        <v>19993.1956</v>
+        <v>8404.358200000001</v>
       </c>
       <c r="G73" t="n">
-        <v>4.062999999999999</v>
+        <v>4.063833333333332</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>4.05</v>
       </c>
       <c r="F74" t="n">
-        <v>10289.8765</v>
+        <v>19993.1956</v>
       </c>
       <c r="G74" t="n">
-        <v>4.062833333333333</v>
+        <v>4.062999999999999</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="D75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="E75" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="F75" t="n">
-        <v>5440</v>
+        <v>10289.8765</v>
       </c>
       <c r="G75" t="n">
-        <v>4.062333333333332</v>
+        <v>4.062833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>4.04</v>
       </c>
       <c r="F76" t="n">
-        <v>57063.7554</v>
+        <v>5440</v>
       </c>
       <c r="G76" t="n">
-        <v>4.061833333333333</v>
+        <v>4.062333333333332</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="D77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="E77" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="F77" t="n">
-        <v>7006.6176</v>
+        <v>57063.7554</v>
       </c>
       <c r="G77" t="n">
-        <v>4.061999999999999</v>
+        <v>4.061833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="C78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="D78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E78" t="n">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="F78" t="n">
-        <v>66002.1115</v>
+        <v>7006.6176</v>
       </c>
       <c r="G78" t="n">
-        <v>4.061333333333333</v>
+        <v>4.061999999999999</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>4.03</v>
       </c>
       <c r="F79" t="n">
-        <v>215613.1011</v>
+        <v>66002.1115</v>
       </c>
       <c r="G79" t="n">
-        <v>4.060666666666666</v>
+        <v>4.061333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="C80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="D80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="E80" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>215613.1011</v>
       </c>
       <c r="G80" t="n">
-        <v>4.061166666666667</v>
+        <v>4.060666666666666</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="C81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="E81" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="F81" t="n">
         <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>4.061666666666667</v>
+        <v>4.061166666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="n">
         <v>4.1</v>
       </c>
       <c r="E82" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="F82" t="n">
-        <v>77893.5845</v>
+        <v>500</v>
       </c>
       <c r="G82" t="n">
-        <v>4.0615</v>
+        <v>4.061666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>4.09</v>
       </c>
       <c r="C83" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="D83" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E83" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="F83" t="n">
-        <v>39</v>
+        <v>77893.5845</v>
       </c>
       <c r="G83" t="n">
-        <v>4.060833333333333</v>
+        <v>4.0615</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="C84" t="n">
         <v>4.06</v>
       </c>
       <c r="D84" t="n">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="E84" t="n">
         <v>4.06</v>
       </c>
       <c r="F84" t="n">
-        <v>43641.4384</v>
+        <v>39</v>
       </c>
       <c r="G84" t="n">
         <v>4.060833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="C85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="D85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="E85" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F85" t="n">
-        <v>36936.5646</v>
+        <v>43641.4384</v>
       </c>
       <c r="G85" t="n">
-        <v>4.060666666666667</v>
+        <v>4.060833333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>4.05</v>
       </c>
       <c r="F86" t="n">
-        <v>47763</v>
+        <v>36936.5646</v>
       </c>
       <c r="G86" t="n">
-        <v>4.059833333333334</v>
+        <v>4.060666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>4.05</v>
       </c>
       <c r="C87" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="D87" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E87" t="n">
         <v>4.05</v>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>47763</v>
       </c>
       <c r="G87" t="n">
-        <v>4.06</v>
+        <v>4.059833333333334</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C88" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D88" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="E88" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="F88" t="n">
-        <v>2411968.4706</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.0605</v>
+        <v>4.06</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C89" t="n">
         <v>4.11</v>
@@ -2679,15 +2945,18 @@
         <v>4.11</v>
       </c>
       <c r="E89" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="F89" t="n">
-        <v>82960.82919999999</v>
+        <v>2411968.4706</v>
       </c>
       <c r="G89" t="n">
-        <v>4.061000000000001</v>
+        <v>4.0605</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="C90" t="n">
         <v>4.11</v>
@@ -2705,15 +2974,18 @@
         <v>4.11</v>
       </c>
       <c r="E90" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>82960.82919999999</v>
       </c>
       <c r="G90" t="n">
-        <v>4.061833333333334</v>
+        <v>4.061000000000001</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,9 +3009,12 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>4.062666666666668</v>
+        <v>4.061833333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>4.11</v>
       </c>
       <c r="F92" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>4.063166666666667</v>
+        <v>4.062666666666668</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>4.11</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G93" t="n">
-        <v>4.064000000000001</v>
+        <v>4.063166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="C94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="E94" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="F94" t="n">
-        <v>1399.756</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.064833333333334</v>
+        <v>4.064000000000001</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="C95" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="E95" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F95" t="n">
-        <v>13804.4226</v>
+        <v>1399.756</v>
       </c>
       <c r="G95" t="n">
-        <v>4.064666666666667</v>
+        <v>4.064833333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="C96" t="n">
         <v>4.07</v>
       </c>
       <c r="D96" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="E96" t="n">
         <v>4.07</v>
       </c>
       <c r="F96" t="n">
-        <v>9100</v>
+        <v>13804.4226</v>
       </c>
       <c r="G96" t="n">
-        <v>4.064333333333334</v>
+        <v>4.064666666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="C97" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="D97" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E97" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="F97" t="n">
-        <v>205721.6109</v>
+        <v>9100</v>
       </c>
       <c r="G97" t="n">
-        <v>4.064166666666667</v>
+        <v>4.064333333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C98" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="D98" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E98" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="F98" t="n">
-        <v>34852.9332</v>
+        <v>205721.6109</v>
       </c>
       <c r="G98" t="n">
-        <v>4.065</v>
+        <v>4.064166666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>4.1</v>
       </c>
       <c r="C99" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D99" t="n">
         <v>4.1</v>
       </c>
       <c r="E99" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="F99" t="n">
-        <v>7657.3529</v>
+        <v>34852.9332</v>
       </c>
       <c r="G99" t="n">
-        <v>4.065666666666667</v>
+        <v>4.065</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="C100" t="n">
         <v>4.08</v>
       </c>
       <c r="D100" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="E100" t="n">
         <v>4.08</v>
       </c>
       <c r="F100" t="n">
-        <v>5147.0668</v>
+        <v>7657.3529</v>
       </c>
       <c r="G100" t="n">
-        <v>4.066000000000001</v>
+        <v>4.065666666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="C101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="D101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="E101" t="n">
-        <v>4.1</v>
+        <v>4.08</v>
       </c>
       <c r="F101" t="n">
-        <v>6900</v>
+        <v>5147.0668</v>
       </c>
       <c r="G101" t="n">
-        <v>4.066833333333333</v>
+        <v>4.066000000000001</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="C102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="D102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="E102" t="n">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F102" t="n">
-        <v>5117.3218</v>
+        <v>6900</v>
       </c>
       <c r="G102" t="n">
-        <v>4.0675</v>
+        <v>4.066833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="C103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="D103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E103" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>5117.3218</v>
       </c>
       <c r="G103" t="n">
-        <v>4.067666666666667</v>
+        <v>4.0675</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3066,18 +3377,21 @@
         <v>4.06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E104" t="n">
         <v>4.06</v>
       </c>
       <c r="F104" t="n">
-        <v>90500</v>
+        <v>70</v>
       </c>
       <c r="G104" t="n">
-        <v>4.067833333333334</v>
+        <v>4.067666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3092,18 +3406,21 @@
         <v>4.06</v>
       </c>
       <c r="D105" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E105" t="n">
         <v>4.06</v>
       </c>
       <c r="F105" t="n">
-        <v>6950</v>
+        <v>90500</v>
       </c>
       <c r="G105" t="n">
-        <v>4.068</v>
+        <v>4.067833333333334</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>4.06</v>
       </c>
       <c r="C106" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="D106" t="n">
         <v>4.06</v>
       </c>
       <c r="E106" t="n">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="F106" t="n">
-        <v>220</v>
+        <v>6950</v>
       </c>
       <c r="G106" t="n">
         <v>4.068</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,544 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="C107" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="D107" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="E107" t="n">
         <v>4.02</v>
       </c>
       <c r="F107" t="n">
-        <v>9760</v>
+        <v>220</v>
       </c>
       <c r="G107" t="n">
-        <v>4.067666666666667</v>
+        <v>4.068</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E108" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4.068333333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F109" t="n">
-        <v>28.4313</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4.069000000000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F110" t="n">
-        <v>45</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4.069666666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4176.9041</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4.070333333333334</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F112" t="n">
-        <v>32596.5601</v>
-      </c>
-      <c r="G112" t="n">
-        <v>4.070500000000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F113" t="n">
-        <v>13179.6068</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4.070833333333334</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F114" t="n">
-        <v>219773.831</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4.071000000000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F115" t="n">
-        <v>172469.6123</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4.070833333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20</v>
-      </c>
-      <c r="G116" t="n">
-        <v>4.071166666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F117" t="n">
-        <v>80</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4.071499999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F118" t="n">
-        <v>182.1965</v>
-      </c>
-      <c r="G118" t="n">
-        <v>4.071833333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F119" t="n">
-        <v>39966.5372</v>
-      </c>
-      <c r="G119" t="n">
-        <v>4.071666666666666</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10</v>
-      </c>
-      <c r="G120" t="n">
-        <v>4.071333333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1383.4285</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4.070999999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6423.3785</v>
-      </c>
-      <c r="G122" t="n">
-        <v>4.069833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>4.069999999999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>4.069999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>4.069499999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>4.069166666666666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F127" t="n">
-        <v>108298.5815</v>
-      </c>
-      <c r="G127" t="n">
-        <v>4.068499999999998</v>
-      </c>
-      <c r="H127" t="n">
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
